--- a/File 1.xlsx
+++ b/File 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alain\Code\C#\C# Repos\DevinHuntProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p1268221\source\repos\PMEfficiency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55097C9E-D916-4A40-B93E-151B2A155A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EF01F9-1CAA-4E39-A171-016074A37168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="22215" windowHeight="19140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15855" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -579,298 +579,298 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
         <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
         <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
         <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
         <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
         <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
         <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
         <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
         <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
         <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
         <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
         <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
         <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
